--- a/nodes_LFPG.xlsx
+++ b/nodes_LFPG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bramverweij_tudelft_nl/Documents/Documenten/Aerospace Engineering MSc/AE4422-20/assignment_G01/AE4422-20_G01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{33F7822A-CB3D-4651-9099-EA07F9893D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5777D46-E319-4B7E-88A2-3EAD6E3335C4}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{33F7822A-CB3D-4651-9099-EA07F9893D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D02332D-EA3F-4429-84D5-8EA005069C3A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8625" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="L140" sqref="L140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1727,7 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -1741,7 +1741,7 @@
         <v>8.5</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
       <c r="C96">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -1769,7 +1769,7 @@
         <v>8.5</v>
       </c>
       <c r="C97">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -1808,10 +1808,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="C100">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
@@ -1822,10 +1822,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -1836,10 +1836,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="C102">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
@@ -1850,10 +1850,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -1864,10 +1864,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="C104">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -1878,10 +1878,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>2.64</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
@@ -1892,10 +1892,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>2.86</v>
+        <v>4.5</v>
       </c>
       <c r="C106">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -1906,10 +1906,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>3.14</v>
+        <v>1.5</v>
       </c>
       <c r="C107">
-        <v>1.98</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
@@ -1920,10 +1920,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>3.36</v>
+        <v>2</v>
       </c>
       <c r="C108">
-        <v>1.98</v>
+        <v>1</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
@@ -1934,10 +1934,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>3.64</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>1.98</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -1948,10 +1948,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="C110">
-        <v>1.98</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -1962,10 +1962,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>4.1399999999999997</v>
+        <v>5</v>
       </c>
       <c r="C111">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
@@ -1976,10 +1976,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1.36</v>
+        <v>5.5</v>
       </c>
       <c r="C112">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -1990,10 +1990,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>1.64</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
@@ -2004,10 +2004,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1.86</v>
+        <v>6.5</v>
       </c>
       <c r="C114">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2018,10 +2018,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>2.14</v>
+        <v>6.5</v>
       </c>
       <c r="C115">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2032,10 +2032,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>2.86</v>
+        <v>7.5</v>
       </c>
       <c r="C116">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2046,10 +2046,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>3.14</v>
+        <v>7.5</v>
       </c>
       <c r="C117">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
@@ -2060,10 +2060,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>3.36</v>
+        <v>7.5</v>
       </c>
       <c r="C118">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2074,10 +2074,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3.64</v>
+        <v>7.5</v>
       </c>
       <c r="C119">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
@@ -2088,10 +2088,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>4.8600000000000003</v>
+        <v>7.5</v>
       </c>
       <c r="C120">
-        <v>1.48</v>
+        <v>0.75</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2102,10 +2102,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>5.14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>1.48</v>
+        <v>0.75</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
@@ -2116,10 +2116,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>5.36</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
@@ -2130,10 +2130,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>5.64</v>
+        <v>9</v>
       </c>
       <c r="C123">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
@@ -2144,10 +2144,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>5.86</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -2155,323 +2155,29 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="B125">
-        <v>6.14</v>
+        <v>-0.5</v>
       </c>
       <c r="C125">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="B126">
-        <v>6.36</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <v>6.64</v>
-      </c>
-      <c r="C127">
-        <v>1.48</v>
-      </c>
-      <c r="D127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>128</v>
-      </c>
-      <c r="B128">
-        <v>7.48</v>
-      </c>
-      <c r="C128">
-        <v>0.86</v>
-      </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <v>7.48</v>
-      </c>
-      <c r="C129">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>130</v>
-      </c>
-      <c r="B130">
-        <v>7.48</v>
-      </c>
-      <c r="C130">
-        <v>1.36</v>
-      </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>7.48</v>
-      </c>
-      <c r="C131">
-        <v>1.64</v>
-      </c>
-      <c r="D131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>132</v>
-      </c>
-      <c r="B132">
-        <v>6.52</v>
-      </c>
-      <c r="C132">
-        <v>1.86</v>
-      </c>
-      <c r="D132" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>133</v>
-      </c>
-      <c r="B133">
-        <v>6.52</v>
-      </c>
-      <c r="C133">
-        <v>2.14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>134</v>
-      </c>
-      <c r="B134">
-        <v>7.52</v>
-      </c>
-      <c r="C134">
-        <v>0.86</v>
-      </c>
-      <c r="D134" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>135</v>
-      </c>
-      <c r="B135">
-        <v>7.52</v>
-      </c>
-      <c r="C135">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D135" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>136</v>
-      </c>
-      <c r="B136">
-        <v>7.52</v>
-      </c>
-      <c r="C136">
-        <v>1.36</v>
-      </c>
-      <c r="D136" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>137</v>
-      </c>
-      <c r="B137">
-        <v>7.52</v>
-      </c>
-      <c r="C137">
-        <v>1.64</v>
-      </c>
-      <c r="D137" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>138</v>
-      </c>
-      <c r="B138">
-        <v>8.98</v>
-      </c>
-      <c r="C138">
-        <v>0.86</v>
-      </c>
-      <c r="D138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>139</v>
-      </c>
-      <c r="B139">
-        <v>8.98</v>
-      </c>
-      <c r="C139">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D139" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>140</v>
-      </c>
-      <c r="B140">
-        <v>8.98</v>
-      </c>
-      <c r="C140">
-        <v>1.36</v>
-      </c>
-      <c r="D140" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>141</v>
-      </c>
-      <c r="B141">
-        <v>8.98</v>
-      </c>
-      <c r="C141">
-        <v>1.64</v>
-      </c>
-      <c r="D141" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>142</v>
-      </c>
-      <c r="B142">
-        <v>9.02</v>
-      </c>
-      <c r="C142">
-        <v>0.86</v>
-      </c>
-      <c r="D142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>143</v>
-      </c>
-      <c r="B143">
-        <v>9.02</v>
-      </c>
-      <c r="C143">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>9.02</v>
-      </c>
-      <c r="C144">
-        <v>1.36</v>
-      </c>
-      <c r="D144" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>145</v>
-      </c>
-      <c r="B145">
-        <v>9.02</v>
-      </c>
-      <c r="C145">
-        <v>1.64</v>
-      </c>
-      <c r="D145" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>200</v>
-      </c>
-      <c r="B146">
-        <v>-0.5</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>201</v>
-      </c>
-      <c r="B147">
-        <v>11</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147" t="s">
         <v>9</v>
       </c>
     </row>
